--- a/out/insertion-sort_test2.xlsx
+++ b/out/insertion-sort_test2.xlsx
@@ -1,157 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berkay\Documents\GitHub\CSE246-AlgorithmAnalysis\out\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
-  <si>
-    <t>Best Case</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Random Array</t>
   </si>
   <si>
-    <t>Worst Case</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.10909438133239746</t>
-  </si>
-  <si>
-    <t>0.12909245491027832</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>0.4223015308380127</t>
-  </si>
-  <si>
-    <t>0.5444073677062988</t>
-  </si>
-  <si>
     <t>3000</t>
   </si>
   <si>
-    <t>0.0010006427764892578</t>
-  </si>
-  <si>
-    <t>1.0317387580871582</t>
-  </si>
-  <si>
-    <t>1.2288787364959717</t>
-  </si>
-  <si>
     <t>4000</t>
   </si>
   <si>
-    <t>0.0020017623901367188</t>
-  </si>
-  <si>
-    <t>1.7632603645324707</t>
-  </si>
-  <si>
-    <t>2.170551061630249</t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
-    <t>0.002001523971557617</t>
-  </si>
-  <si>
-    <t>2.7839903831481934</t>
-  </si>
-  <si>
-    <t>3.4524850845336914</t>
-  </si>
-  <si>
     <t>6000</t>
   </si>
   <si>
-    <t>0.002001047134399414</t>
-  </si>
-  <si>
-    <t>3.9288103580474854</t>
-  </si>
-  <si>
-    <t>4.934527158737183</t>
-  </si>
-  <si>
     <t>7000</t>
   </si>
   <si>
-    <t>0.0030007362365722656</t>
-  </si>
-  <si>
-    <t>5.252773284912109</t>
-  </si>
-  <si>
-    <t>6.916945457458496</t>
-  </si>
-  <si>
     <t>8000</t>
   </si>
   <si>
-    <t>0.003002166748046875</t>
-  </si>
-  <si>
-    <t>6.979991436004639</t>
-  </si>
-  <si>
-    <t>8.816303968429565</t>
-  </si>
-  <si>
     <t>9000</t>
   </si>
   <si>
-    <t>0.0030019283294677734</t>
-  </si>
-  <si>
-    <t>8.81130075454712</t>
-  </si>
-  <si>
-    <t>11.130958557128906</t>
-  </si>
-  <si>
     <t>10000</t>
-  </si>
-  <si>
-    <t>0.004002809524536133</t>
-  </si>
-  <si>
-    <t>10.96584177017212</t>
-  </si>
-  <si>
-    <t>13.794862270355225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +90,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -242,7 +136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,10 +168,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,166 +377,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>0.1040902137756348</v>
+      </c>
+      <c r="C2">
+        <v>0.1300930976867676</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>0.4312920570373535</v>
+      </c>
+      <c r="C3">
+        <v>0.5313785076141357</v>
+      </c>
+      <c r="D3">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0.9767158031463623</v>
+      </c>
+      <c r="C4">
+        <v>1.248892784118652</v>
+      </c>
+      <c r="D4">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5">
+        <v>1.767264127731323</v>
+      </c>
+      <c r="C5">
+        <v>2.196586608886719</v>
+      </c>
+      <c r="D5">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6">
+        <v>2.749983072280884</v>
+      </c>
+      <c r="C6">
+        <v>3.413440942764282</v>
+      </c>
+      <c r="D6">
+        <v>0.002000808715820312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7">
+        <v>3.982842683792114</v>
+      </c>
+      <c r="C7">
+        <v>4.939531803131104</v>
+      </c>
+      <c r="D7">
+        <v>0.002001285552978516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B8">
+        <v>5.421894788742065</v>
+      </c>
+      <c r="C8">
+        <v>6.735799312591553</v>
+      </c>
+      <c r="D8">
+        <v>0.002001047134399414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B9">
+        <v>6.911924600601196</v>
+      </c>
+      <c r="C9">
+        <v>8.802294492721558</v>
+      </c>
+      <c r="D9">
+        <v>0.003002166748046875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B10">
+        <v>9.006458520889282</v>
+      </c>
+      <c r="C10">
+        <v>11.14496850967407</v>
+      </c>
+      <c r="D10">
+        <v>0.004002809524536133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
+      <c r="B11">
+        <v>10.82976245880127</v>
+      </c>
+      <c r="C11">
+        <v>13.80885601043701</v>
+      </c>
+      <c r="D11">
+        <v>0.004002809524536133</v>
       </c>
     </row>
   </sheetData>
